--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H2">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I2">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J2">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.789624</v>
+        <v>22.3363875</v>
       </c>
       <c r="N2">
-        <v>71.57924800000001</v>
+        <v>44.672775</v>
       </c>
       <c r="O2">
-        <v>0.258139457682779</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P2">
-        <v>0.1993778771086309</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q2">
-        <v>39.20019621908</v>
+        <v>61.09941226344375</v>
       </c>
       <c r="R2">
-        <v>156.80078487632</v>
+        <v>244.397649053775</v>
       </c>
       <c r="S2">
-        <v>0.009471493526725551</v>
+        <v>0.02564348870073281</v>
       </c>
       <c r="T2">
-        <v>0.005935906235776531</v>
+        <v>0.01580760505469632</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H3">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I3">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J3">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>180.340101</v>
       </c>
       <c r="O3">
-        <v>0.4335790718803266</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P3">
-        <v>0.5023219368682956</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q3">
-        <v>65.841870308265</v>
+        <v>164.4353364158235</v>
       </c>
       <c r="R3">
-        <v>395.05122184959</v>
+        <v>986.612018494941</v>
       </c>
       <c r="S3">
-        <v>0.01590861548056994</v>
+        <v>0.06901368663251856</v>
       </c>
       <c r="T3">
-        <v>0.01495519944672329</v>
+        <v>0.06381392452409872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H4">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I4">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J4">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.1309775</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N4">
-        <v>42.261955</v>
+        <v>0.373519</v>
       </c>
       <c r="O4">
-        <v>0.1524111868891667</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P4">
-        <v>0.1177170633360173</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q4">
-        <v>23.1446540008625</v>
+        <v>0.3405771765798333</v>
       </c>
       <c r="R4">
-        <v>92.57861600344999</v>
+        <v>2.043463059479</v>
       </c>
       <c r="S4">
-        <v>0.005592177123867892</v>
+        <v>0.0001429406054136107</v>
       </c>
       <c r="T4">
-        <v>0.003504688987800028</v>
+        <v>0.0001321708989966509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H5">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I5">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J5">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.40334366666667</v>
+        <v>12.9946545</v>
       </c>
       <c r="N5">
-        <v>64.210031</v>
+        <v>25.989309</v>
       </c>
       <c r="O5">
-        <v>0.1543756795743782</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P5">
-        <v>0.178851553034748</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q5">
-        <v>23.44297530138167</v>
+        <v>35.54584430971725</v>
       </c>
       <c r="R5">
-        <v>140.65785180829</v>
+        <v>142.183377238869</v>
       </c>
       <c r="S5">
-        <v>0.005664257075992631</v>
+        <v>0.01491862888932585</v>
       </c>
       <c r="T5">
-        <v>0.005324793624715146</v>
+        <v>0.009196400544100168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H6">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I6">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J6">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2072186666666667</v>
+        <v>0.121553</v>
       </c>
       <c r="N6">
-        <v>0.621656</v>
+        <v>0.364659</v>
       </c>
       <c r="O6">
-        <v>0.001494603973349423</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P6">
-        <v>0.001731569652308208</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q6">
-        <v>0.2269655695066666</v>
+        <v>0.3324985680365</v>
       </c>
       <c r="R6">
-        <v>1.36179341704</v>
+        <v>1.994991408219</v>
       </c>
       <c r="S6">
-        <v>5.483908576267896E-05</v>
+        <v>0.0001395500047642071</v>
       </c>
       <c r="T6">
-        <v>5.15525355464463E-05</v>
+        <v>0.0001290357595121526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.7354205</v>
+      </c>
+      <c r="H7">
+        <v>5.470841</v>
+      </c>
+      <c r="I7">
+        <v>0.1099128184465388</v>
+      </c>
+      <c r="J7">
+        <v>0.08912955237205787</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>11.02740366666667</v>
-      </c>
-      <c r="H7">
-        <v>33.082211</v>
-      </c>
-      <c r="I7">
-        <v>0.3694079527725408</v>
-      </c>
-      <c r="J7">
-        <v>0.4496177946938263</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.789624</v>
+        <v>0.047492</v>
       </c>
       <c r="N7">
-        <v>71.57924800000001</v>
+        <v>0.142476</v>
       </c>
       <c r="O7">
-        <v>0.258139457682779</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P7">
-        <v>0.1993778771086309</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q7">
-        <v>394.6666309262214</v>
+        <v>0.129910590386</v>
       </c>
       <c r="R7">
-        <v>2367.999785557328</v>
+        <v>0.779463542316</v>
       </c>
       <c r="S7">
-        <v>0.0953587685924093</v>
+        <v>5.452361378379573E-05</v>
       </c>
       <c r="T7">
-        <v>0.08964384141631934</v>
+        <v>5.041559065388062E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>33.082211</v>
       </c>
       <c r="I8">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J8">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.113367</v>
+        <v>22.3363875</v>
       </c>
       <c r="N8">
-        <v>180.340101</v>
+        <v>44.672775</v>
       </c>
       <c r="O8">
-        <v>0.4335790718803266</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P8">
-        <v>0.5023219368682956</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q8">
-        <v>662.894363671479</v>
+        <v>246.3123614175875</v>
       </c>
       <c r="R8">
-        <v>5966.049273043312</v>
+        <v>1477.874168505525</v>
       </c>
       <c r="S8">
-        <v>0.1601675573083298</v>
+        <v>0.1033775616306839</v>
       </c>
       <c r="T8">
-        <v>0.2258528814810545</v>
+        <v>0.09558869026245326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>33.082211</v>
       </c>
       <c r="I9">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J9">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.1309775</v>
+        <v>60.113367</v>
       </c>
       <c r="N9">
-        <v>42.261955</v>
+        <v>180.340101</v>
       </c>
       <c r="O9">
-        <v>0.1524111868891667</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P9">
-        <v>0.1177170633360173</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q9">
-        <v>233.0198187637508</v>
+        <v>662.894363671479</v>
       </c>
       <c r="R9">
-        <v>1398.118912582505</v>
+        <v>5966.049273043312</v>
       </c>
       <c r="S9">
-        <v>0.05630190452836017</v>
+        <v>0.2782174737016189</v>
       </c>
       <c r="T9">
-        <v>0.05292768641497357</v>
+        <v>0.3858832153674925</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>33.082211</v>
       </c>
       <c r="I10">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J10">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.40334366666667</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N10">
-        <v>64.210031</v>
+        <v>0.373519</v>
       </c>
       <c r="O10">
-        <v>0.1543756795743782</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P10">
-        <v>0.178851553034748</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q10">
-        <v>236.0233104287268</v>
+        <v>1.372981596723222</v>
       </c>
       <c r="R10">
-        <v>2124.209793858541</v>
+        <v>12.356834370509</v>
       </c>
       <c r="S10">
-        <v>0.05702760374944079</v>
+        <v>0.0005762418451764925</v>
       </c>
       <c r="T10">
-        <v>0.08041484085304931</v>
+        <v>0.0007992382832304748</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>33.082211</v>
       </c>
       <c r="I11">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J11">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2072186666666667</v>
+        <v>12.9946545</v>
       </c>
       <c r="N11">
-        <v>0.621656</v>
+        <v>25.989309</v>
       </c>
       <c r="O11">
-        <v>0.001494603973349423</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P11">
-        <v>0.001731569652308208</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q11">
-        <v>2.285083884601778</v>
+        <v>143.2973006803665</v>
       </c>
       <c r="R11">
-        <v>20.565754961416</v>
+        <v>859.783804082199</v>
       </c>
       <c r="S11">
-        <v>0.0005521185940007156</v>
+        <v>0.06014203041755046</v>
       </c>
       <c r="T11">
-        <v>0.0007785445284295723</v>
+        <v>0.0556106937197474</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>11.02740366666667</v>
+      </c>
+      <c r="H12">
+        <v>33.082211</v>
+      </c>
+      <c r="I12">
+        <v>0.4430956838815202</v>
+      </c>
+      <c r="J12">
+        <v>0.5389669811109423</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G12">
-        <v>0.2940173333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.8820519999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.009849312174416792</v>
-      </c>
-      <c r="J12">
-        <v>0.01198790114255903</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>35.789624</v>
+        <v>0.121553</v>
       </c>
       <c r="N12">
-        <v>71.57924800000001</v>
+        <v>0.364659</v>
       </c>
       <c r="O12">
-        <v>0.258139457682779</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P12">
-        <v>0.1993778771086309</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q12">
-        <v>10.52276980948267</v>
+        <v>1.340413997894333</v>
       </c>
       <c r="R12">
-        <v>63.136618856896</v>
+        <v>12.063725981049</v>
       </c>
       <c r="S12">
-        <v>0.002542496103252343</v>
+        <v>0.000562573189102066</v>
       </c>
       <c r="T12">
-        <v>0.00239012228079155</v>
+        <v>0.0007802800744394308</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2940173333333333</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H13">
-        <v>0.8820519999999999</v>
+        <v>33.082211</v>
       </c>
       <c r="I13">
-        <v>0.009849312174416792</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J13">
-        <v>0.01198790114255903</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.113367</v>
+        <v>0.047492</v>
       </c>
       <c r="N13">
-        <v>180.340101</v>
+        <v>0.142476</v>
       </c>
       <c r="O13">
-        <v>0.4335790718803266</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P13">
-        <v>0.5023219368682956</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q13">
-        <v>17.674371863028</v>
+        <v>0.5237134549373333</v>
       </c>
       <c r="R13">
-        <v>159.069346767252</v>
+        <v>4.713421094436</v>
       </c>
       <c r="S13">
-        <v>0.004270455631243235</v>
+        <v>0.0002198030973882612</v>
       </c>
       <c r="T13">
-        <v>0.006021785720915906</v>
+        <v>0.000304863403579323</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H14">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I14">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J14">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.1309775</v>
+        <v>22.3363875</v>
       </c>
       <c r="N14">
-        <v>42.261955</v>
+        <v>44.672775</v>
       </c>
       <c r="O14">
-        <v>0.1524111868891667</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P14">
-        <v>0.1177170633360173</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q14">
-        <v>6.212873655276666</v>
+        <v>7.462840209475001</v>
       </c>
       <c r="R14">
-        <v>37.27724193166</v>
+        <v>44.77704125685</v>
       </c>
       <c r="S14">
-        <v>0.001501145358544782</v>
+        <v>0.003132162020837421</v>
       </c>
       <c r="T14">
-        <v>0.001411180518064535</v>
+        <v>0.002896172636875021</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H15">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I15">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J15">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.40334366666667</v>
+        <v>60.113367</v>
       </c>
       <c r="N15">
-        <v>64.210031</v>
+        <v>180.340101</v>
       </c>
       <c r="O15">
-        <v>0.1543756795743782</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P15">
-        <v>0.178851553034748</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q15">
-        <v>6.292954029290222</v>
+        <v>20.084557199526</v>
       </c>
       <c r="R15">
-        <v>56.636586263612</v>
+        <v>180.761014795734</v>
       </c>
       <c r="S15">
-        <v>0.001520494260265789</v>
+        <v>0.008429510146260737</v>
       </c>
       <c r="T15">
-        <v>0.002144054736973712</v>
+        <v>0.01169159663458287</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H16">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I16">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J16">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,60 +1429,60 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2072186666666667</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N16">
-        <v>0.621656</v>
+        <v>0.373519</v>
       </c>
       <c r="O16">
-        <v>0.001494603973349423</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P16">
-        <v>0.001731569652308208</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q16">
-        <v>0.06092587979022222</v>
+        <v>0.04159897703844445</v>
       </c>
       <c r="R16">
-        <v>0.5483329181119999</v>
+        <v>0.374390793346</v>
       </c>
       <c r="S16">
-        <v>1.472082111064219E-05</v>
+        <v>1.745913517216653E-05</v>
       </c>
       <c r="T16">
-        <v>2.075788581332611E-05</v>
+        <v>2.421554307188038E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>14.880867</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H17">
-        <v>29.761734</v>
+        <v>1.002334</v>
       </c>
       <c r="I17">
-        <v>0.4984954555138827</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J17">
-        <v>0.4044894462266826</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>35.789624</v>
+        <v>12.9946545</v>
       </c>
       <c r="N17">
-        <v>71.57924800000001</v>
+        <v>25.989309</v>
       </c>
       <c r="O17">
-        <v>0.258139457682779</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P17">
-        <v>0.1993778771086309</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q17">
-        <v>532.580634724008</v>
+        <v>4.341661341201</v>
       </c>
       <c r="R17">
-        <v>2130.322538896032</v>
+        <v>26.049968047206</v>
       </c>
       <c r="S17">
-        <v>0.1286813465436835</v>
+        <v>0.00182219991029454</v>
       </c>
       <c r="T17">
-        <v>0.0806462471015217</v>
+        <v>0.001684908214837554</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>14.880867</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H18">
-        <v>29.761734</v>
+        <v>1.002334</v>
       </c>
       <c r="I18">
-        <v>0.4984954555138827</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J18">
-        <v>0.4044894462266826</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>60.113367</v>
+        <v>0.121553</v>
       </c>
       <c r="N18">
-        <v>180.340101</v>
+        <v>0.364659</v>
       </c>
       <c r="O18">
-        <v>0.4335790718803266</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P18">
-        <v>0.5023219368682956</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q18">
-        <v>894.539019249189</v>
+        <v>0.04061223490066668</v>
       </c>
       <c r="R18">
-        <v>5367.234115495134</v>
+        <v>0.365510114106</v>
       </c>
       <c r="S18">
-        <v>0.2161371969382699</v>
+        <v>1.704499844116919E-05</v>
       </c>
       <c r="T18">
-        <v>0.2031839220713715</v>
+        <v>2.364114200629373E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>14.880867</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H19">
-        <v>29.761734</v>
+        <v>1.002334</v>
       </c>
       <c r="I19">
-        <v>0.4984954555138827</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J19">
-        <v>0.4044894462266826</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.1309775</v>
+        <v>0.047492</v>
       </c>
       <c r="N19">
-        <v>42.261955</v>
+        <v>0.142476</v>
       </c>
       <c r="O19">
-        <v>0.1524111868891667</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P19">
-        <v>0.1177170633360173</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q19">
-        <v>314.4472657574925</v>
+        <v>0.01586761544266667</v>
       </c>
       <c r="R19">
-        <v>1257.78906302997</v>
+        <v>0.142808538984</v>
       </c>
       <c r="S19">
-        <v>0.07597628403372664</v>
+        <v>6.659655178959032E-06</v>
       </c>
       <c r="T19">
-        <v>0.04761530976021696</v>
+        <v>9.236835916537656E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H20">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I20">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J20">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>21.40334366666667</v>
+        <v>22.3363875</v>
       </c>
       <c r="N20">
-        <v>64.210031</v>
+        <v>44.672775</v>
       </c>
       <c r="O20">
-        <v>0.1543756795743782</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P20">
-        <v>0.178851553034748</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q20">
-        <v>318.500310458959</v>
+        <v>235.5451467732562</v>
       </c>
       <c r="R20">
-        <v>1911.001862753754</v>
+        <v>942.180587093025</v>
       </c>
       <c r="S20">
-        <v>0.07695557470969486</v>
+        <v>0.09885855012399761</v>
       </c>
       <c r="T20">
-        <v>0.07234356564380737</v>
+        <v>0.06094010588330737</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H21">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I21">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J21">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.2072186666666667</v>
+        <v>60.113367</v>
       </c>
       <c r="N21">
-        <v>0.621656</v>
+        <v>180.340101</v>
       </c>
       <c r="O21">
-        <v>0.001494603973349423</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P21">
-        <v>0.001731569652308208</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q21">
-        <v>3.083593418583999</v>
+        <v>633.9168253169685</v>
       </c>
       <c r="R21">
-        <v>18.501560511504</v>
+        <v>3803.500951901811</v>
       </c>
       <c r="S21">
-        <v>0.0007450532885076796</v>
+        <v>0.2660555698495006</v>
       </c>
       <c r="T21">
-        <v>0.0007004016497650766</v>
+        <v>0.2460098986451221</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>10.5453555</v>
+      </c>
+      <c r="H22">
+        <v>21.090711</v>
+      </c>
+      <c r="I22">
+        <v>0.4237263501263187</v>
+      </c>
+      <c r="J22">
+        <v>0.3436045080890556</v>
+      </c>
+      <c r="K22">
         <v>3</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.812639666666667</v>
-      </c>
-      <c r="H22">
-        <v>5.437919000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.06072177355778616</v>
-      </c>
-      <c r="J22">
-        <v>0.07390634043485357</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>35.789624</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N22">
-        <v>71.57924800000001</v>
+        <v>0.373519</v>
       </c>
       <c r="O22">
-        <v>0.258139457682779</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P22">
-        <v>0.1993778771086309</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q22">
-        <v>64.87369211748535</v>
+        <v>1.3129635470015</v>
       </c>
       <c r="R22">
-        <v>389.2421527049121</v>
+        <v>7.877781282008999</v>
       </c>
       <c r="S22">
-        <v>0.01567468569574343</v>
+        <v>0.000551052205491532</v>
       </c>
       <c r="T22">
-        <v>0.01473528926076887</v>
+        <v>0.0005095337688206538</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.812639666666667</v>
+        <v>10.5453555</v>
       </c>
       <c r="H23">
-        <v>5.437919000000001</v>
+        <v>21.090711</v>
       </c>
       <c r="I23">
-        <v>0.06072177355778616</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J23">
-        <v>0.07390634043485357</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>60.113367</v>
+        <v>12.9946545</v>
       </c>
       <c r="N23">
-        <v>180.340101</v>
+        <v>25.989309</v>
       </c>
       <c r="O23">
-        <v>0.4335790718803266</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P23">
-        <v>0.5023219368682956</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q23">
-        <v>108.963873521091</v>
+        <v>137.0332513021747</v>
       </c>
       <c r="R23">
-        <v>980.6748616898192</v>
+        <v>548.1330052086989</v>
       </c>
       <c r="S23">
-        <v>0.02632769022211228</v>
+        <v>0.05751300219125768</v>
       </c>
       <c r="T23">
-        <v>0.03712477607408328</v>
+        <v>0.03545316453464091</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.812639666666667</v>
+        <v>10.5453555</v>
       </c>
       <c r="H24">
-        <v>5.437919000000001</v>
+        <v>21.090711</v>
       </c>
       <c r="I24">
-        <v>0.06072177355778616</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J24">
-        <v>0.07390634043485357</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>21.1309775</v>
+        <v>0.121553</v>
       </c>
       <c r="N24">
-        <v>42.261955</v>
+        <v>0.364659</v>
       </c>
       <c r="O24">
-        <v>0.1524111868891667</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P24">
-        <v>0.1177170633360173</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q24">
-        <v>38.30284801194084</v>
+        <v>1.2818195970915</v>
       </c>
       <c r="R24">
-        <v>229.817088071645</v>
+        <v>7.690917582549</v>
       </c>
       <c r="S24">
-        <v>0.009254677577957405</v>
+        <v>0.0005379810563916068</v>
       </c>
       <c r="T24">
-        <v>0.008700037357902913</v>
+        <v>0.000497447451413103</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.812639666666667</v>
+        <v>10.5453555</v>
       </c>
       <c r="H25">
-        <v>5.437919000000001</v>
+        <v>21.090711</v>
       </c>
       <c r="I25">
-        <v>0.06072177355778616</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J25">
-        <v>0.07390634043485357</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.40334366666667</v>
+        <v>0.047492</v>
       </c>
       <c r="N25">
-        <v>64.210031</v>
+        <v>0.142476</v>
       </c>
       <c r="O25">
-        <v>0.1543756795743782</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P25">
-        <v>0.178851553034748</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q25">
-        <v>38.79654972949879</v>
+        <v>0.500820023406</v>
       </c>
       <c r="R25">
-        <v>349.1689475654891</v>
+        <v>3.004920140436</v>
       </c>
       <c r="S25">
-        <v>0.009373965057944748</v>
+        <v>0.0002101946996795652</v>
       </c>
       <c r="T25">
-        <v>0.01321826376588835</v>
+        <v>0.0001943578057514918</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H26">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I26">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J26">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2072186666666667</v>
+        <v>22.3363875</v>
       </c>
       <c r="N26">
-        <v>0.621656</v>
+        <v>44.672775</v>
       </c>
       <c r="O26">
-        <v>0.001494603973349423</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P26">
-        <v>0.001731569652308208</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q26">
-        <v>0.3756127748737778</v>
+        <v>1.5222620354375</v>
       </c>
       <c r="R26">
-        <v>3.380514973864</v>
+        <v>9.133572212624999</v>
       </c>
       <c r="S26">
-        <v>9.075500402829114E-05</v>
+        <v>0.0006388950050285781</v>
       </c>
       <c r="T26">
-        <v>0.0001279739762101515</v>
+        <v>0.0005907581469572841</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.06815166666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.204455</v>
+      </c>
+      <c r="I27">
+        <v>0.002738424225877654</v>
+      </c>
+      <c r="J27">
+        <v>0.003330928943142214</v>
+      </c>
+      <c r="K27">
         <v>3</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.7413373333333334</v>
-      </c>
-      <c r="H27">
-        <v>2.224012</v>
-      </c>
-      <c r="I27">
-        <v>0.02483412368845492</v>
-      </c>
-      <c r="J27">
-        <v>0.03022637667151709</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>35.789624</v>
+        <v>60.113367</v>
       </c>
       <c r="N27">
-        <v>71.57924800000001</v>
+        <v>180.340101</v>
       </c>
       <c r="O27">
-        <v>0.258139457682779</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P27">
-        <v>0.1993778771086309</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q27">
-        <v>26.53218441716267</v>
+        <v>4.096826149995</v>
       </c>
       <c r="R27">
-        <v>159.193106502976</v>
+        <v>36.871435349955</v>
       </c>
       <c r="S27">
-        <v>0.006410667220964808</v>
+        <v>0.001719442318582168</v>
       </c>
       <c r="T27">
-        <v>0.006026470813452922</v>
+        <v>0.002384839175288516</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,25 +2146,25 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.7413373333333334</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H28">
-        <v>2.224012</v>
+        <v>0.204455</v>
       </c>
       <c r="I28">
-        <v>0.02483412368845492</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J28">
-        <v>0.03022637667151709</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,33 +2173,33 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.113367</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N28">
-        <v>180.340101</v>
+        <v>0.373519</v>
       </c>
       <c r="O28">
-        <v>0.4335790718803266</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P28">
-        <v>0.5023219368682956</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q28">
-        <v>44.56428318946801</v>
+        <v>0.008485314127222221</v>
       </c>
       <c r="R28">
-        <v>401.078548705212</v>
+        <v>0.076367827145</v>
       </c>
       <c r="S28">
-        <v>0.01076755629980152</v>
+        <v>3.561295418119417E-06</v>
       </c>
       <c r="T28">
-        <v>0.01518337207414713</v>
+        <v>4.939460158750778E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.7413373333333334</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H29">
-        <v>2.224012</v>
+        <v>0.204455</v>
       </c>
       <c r="I29">
-        <v>0.02483412368845492</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J29">
-        <v>0.03022637667151709</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.1309775</v>
+        <v>12.9946545</v>
       </c>
       <c r="N29">
-        <v>42.261955</v>
+        <v>25.989309</v>
       </c>
       <c r="O29">
-        <v>0.1524111868891667</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P29">
-        <v>0.1177170633360173</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q29">
-        <v>15.66518251057667</v>
+        <v>0.8856073619324999</v>
       </c>
       <c r="R29">
-        <v>93.99109506346001</v>
+        <v>5.313644171595</v>
       </c>
       <c r="S29">
-        <v>0.003784998266709784</v>
+        <v>0.0003716903573651797</v>
       </c>
       <c r="T29">
-        <v>0.003558160297059292</v>
+        <v>0.0003436857465322059</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.7413373333333334</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H30">
-        <v>2.224012</v>
+        <v>0.204455</v>
       </c>
       <c r="I30">
-        <v>0.02483412368845492</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J30">
-        <v>0.03022637667151709</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>21.40334366666667</v>
+        <v>0.121553</v>
       </c>
       <c r="N30">
-        <v>64.210031</v>
+        <v>0.364659</v>
       </c>
       <c r="O30">
-        <v>0.1543756795743782</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P30">
-        <v>0.178851553034748</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q30">
-        <v>15.86709771826356</v>
+        <v>0.008284039538333334</v>
       </c>
       <c r="R30">
-        <v>142.803879464372</v>
+        <v>0.07455635584500001</v>
       </c>
       <c r="S30">
-        <v>0.003833784721039392</v>
+        <v>3.476820257807524E-06</v>
       </c>
       <c r="T30">
-        <v>0.005406034410314108</v>
+        <v>4.822294453641984E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.7413373333333334</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H31">
-        <v>2.224012</v>
+        <v>0.204455</v>
       </c>
       <c r="I31">
-        <v>0.02483412368845492</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J31">
-        <v>0.03022637667151709</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.2072186666666667</v>
+        <v>0.047492</v>
       </c>
       <c r="N31">
-        <v>0.621656</v>
+        <v>0.142476</v>
       </c>
       <c r="O31">
-        <v>0.001494603973349423</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P31">
-        <v>0.001731569652308208</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q31">
-        <v>0.1536189337635556</v>
+        <v>0.003236658953333333</v>
       </c>
       <c r="R31">
-        <v>1.382570403872</v>
+        <v>0.02912993058</v>
       </c>
       <c r="S31">
-        <v>3.711717993941576E-05</v>
+        <v>1.358429225801049E-06</v>
       </c>
       <c r="T31">
-        <v>5.233907654363579E-05</v>
+        <v>1.88411975181497E-06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.176741</v>
+      </c>
+      <c r="H32">
+        <v>0.530223</v>
+      </c>
+      <c r="I32">
+        <v>0.007101687453559598</v>
+      </c>
+      <c r="J32">
+        <v>0.008638258477511892</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>22.3363875</v>
+      </c>
+      <c r="N32">
+        <v>44.672775</v>
+      </c>
+      <c r="O32">
+        <v>0.2333075346730891</v>
+      </c>
+      <c r="P32">
+        <v>0.1773553735433322</v>
+      </c>
+      <c r="Q32">
+        <v>3.9477554631375</v>
+      </c>
+      <c r="R32">
+        <v>23.686532778825</v>
+      </c>
+      <c r="S32">
+        <v>0.001656877191808798</v>
+      </c>
+      <c r="T32">
+        <v>0.001532041559042978</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.176741</v>
+      </c>
+      <c r="H33">
+        <v>0.530223</v>
+      </c>
+      <c r="I33">
+        <v>0.007101687453559598</v>
+      </c>
+      <c r="J33">
+        <v>0.008638258477511892</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>60.113367</v>
+      </c>
+      <c r="N33">
+        <v>180.340101</v>
+      </c>
+      <c r="O33">
+        <v>0.627894795237978</v>
+      </c>
+      <c r="P33">
+        <v>0.715968192656428</v>
+      </c>
+      <c r="Q33">
+        <v>10.624496596947</v>
+      </c>
+      <c r="R33">
+        <v>95.620469372523</v>
+      </c>
+      <c r="S33">
+        <v>0.00445911258949692</v>
+      </c>
+      <c r="T33">
+        <v>0.006184718309843257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.176741</v>
+      </c>
+      <c r="H34">
+        <v>0.530223</v>
+      </c>
+      <c r="I34">
+        <v>0.007101687453559598</v>
+      </c>
+      <c r="J34">
+        <v>0.008638258477511892</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.1245063333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.373519</v>
+      </c>
+      <c r="O34">
+        <v>0.001300490765625635</v>
+      </c>
+      <c r="P34">
+        <v>0.001482907694239543</v>
+      </c>
+      <c r="Q34">
+        <v>0.02200537385966667</v>
+      </c>
+      <c r="R34">
+        <v>0.198048364737</v>
+      </c>
+      <c r="S34">
+        <v>9.235678953713686E-06</v>
+      </c>
+      <c r="T34">
+        <v>1.280973996113235E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.176741</v>
+      </c>
+      <c r="H35">
+        <v>0.530223</v>
+      </c>
+      <c r="I35">
+        <v>0.007101687453559598</v>
+      </c>
+      <c r="J35">
+        <v>0.008638258477511892</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>12.9946545</v>
+      </c>
+      <c r="N35">
+        <v>25.989309</v>
+      </c>
+      <c r="O35">
+        <v>0.1357314742736964</v>
+      </c>
+      <c r="P35">
+        <v>0.103180149561519</v>
+      </c>
+      <c r="Q35">
+        <v>2.2966882309845</v>
+      </c>
+      <c r="R35">
+        <v>13.780129385907</v>
+      </c>
+      <c r="S35">
+        <v>0.0009639225079026568</v>
+      </c>
+      <c r="T35">
+        <v>0.0008912968016607361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.176741</v>
+      </c>
+      <c r="H36">
+        <v>0.530223</v>
+      </c>
+      <c r="I36">
+        <v>0.007101687453559598</v>
+      </c>
+      <c r="J36">
+        <v>0.008638258477511892</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.121553</v>
+      </c>
+      <c r="N36">
+        <v>0.364659</v>
+      </c>
+      <c r="O36">
+        <v>0.001269642674408205</v>
+      </c>
+      <c r="P36">
+        <v>0.00144773261031888</v>
+      </c>
+      <c r="Q36">
+        <v>0.021483398773</v>
+      </c>
+      <c r="R36">
+        <v>0.193350588957</v>
+      </c>
+      <c r="S36">
+        <v>9.016605451348604E-06</v>
+      </c>
+      <c r="T36">
+        <v>1.250588849425748E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.176741</v>
+      </c>
+      <c r="H37">
+        <v>0.530223</v>
+      </c>
+      <c r="I37">
+        <v>0.007101687453559598</v>
+      </c>
+      <c r="J37">
+        <v>0.008638258477511892</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.047492</v>
+      </c>
+      <c r="N37">
+        <v>0.142476</v>
+      </c>
+      <c r="O37">
+        <v>0.000496062375202541</v>
+      </c>
+      <c r="P37">
+        <v>0.0005656439341625811</v>
+      </c>
+      <c r="Q37">
+        <v>0.008393783572</v>
+      </c>
+      <c r="R37">
+        <v>0.075544052148</v>
+      </c>
+      <c r="S37">
+        <v>3.522879946158859E-06</v>
+      </c>
+      <c r="T37">
+        <v>4.886178509533094E-06</v>
       </c>
     </row>
   </sheetData>
